--- a/Database Documentation.xlsx
+++ b/Database Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecpe\Documents\Clemson\Trucker Sim\Repo\S25-Team22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0A3D3-4504-48B8-8DA1-9DA032965895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723CE330-91BB-436E-9F1A-4CEA9BB5127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="4140" windowWidth="23256" windowHeight="12456" xr2:uid="{4DF5C8FF-7DB1-41AA-B206-AA13FE6F029E}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>section_name (primary key, VARCHAR(50))</t>
   </si>
   <si>
-    <t>Table name: About Page</t>
-  </si>
-  <si>
     <t>content (TEXT)</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Not Actual Data</t>
+  </si>
+  <si>
+    <t>Table name: about_page</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,10 +523,10 @@
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -534,72 +534,72 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>0.01</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>45701</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
